--- a/biology/Botanique/Ulvophyceae/Ulvophyceae.xlsx
+++ b/biology/Botanique/Ulvophyceae/Ulvophyceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ulvophyceae, ou Ulvophycées, sont une classe d'algues vertes de la division des Chlorophyta.
 </t>
@@ -511,9 +523,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la recherche, les Ulvophyceae trouvent leur utilité dans une hypothétique production de biocarburants. De plus, ces algues ont un futur dans le domaine de la génétique. En effet, leur génome de petite taille, leur cycle de vie court et contrôlable et leur morphologie simple, en fond de parfait candidat pour devenir des organismes modèles afin d’étudier la morphogénèse[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la recherche, les Ulvophyceae trouvent leur utilité dans une hypothétique production de biocarburants. De plus, ces algues ont un futur dans le domaine de la génétique. En effet, leur génome de petite taille, leur cycle de vie court et contrôlable et leur morphologie simple, en fond de parfait candidat pour devenir des organismes modèles afin d’étudier la morphogénèse. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (14 août 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (14 août 2017) :
 ordre des Bryopsidales J.H.Schaffner
 ordre des Cladophorales Haeckel
 ordre des Dasycladales Pascher
@@ -554,7 +570,7 @@
 ordre des Ulotrichales Borzì
 ordre des Ulvales Blackman &amp; Tansley
 Ulvophyceae incertae sedis
-Selon BioLib                    (14 août 2017)[3] :
+Selon BioLib                    (14 août 2017) :
 ordre des Bryopsidales J.H. Schaffner
 ordre des Cladophorales Haeckel
 ordre des Dasycladales Pascher
@@ -565,10 +581,10 @@
 ordre des Ulvales Blackman &amp; Tansley
 genre Desmochloris S.Watanabe, N.Kuroda &amp; F.Maiwa, 2001
 genre Trichophilus Weber-van Bosse, 1887
-Selon Catalogue of Life                                   (14 août 2017)[4] :* ordre Siphonocladales
+Selon Catalogue of Life                                   (14 août 2017) :* ordre Siphonocladales
 ordre des Trentepohliales
 ordre des Ulvales
-Selon ITIS      (14 août 2017)[5] :
+Selon ITIS      (14 août 2017) :
 ordre des Bryopsidales
 ordre des Cladophorales
 ordre des Dasycladales
@@ -577,12 +593,12 @@
 ordre des Trentepohliales
 ordre des Ulotrichales
 ordre des Ulvales
-Selon Paleobiology Database                   (14 août 2017)[6] :
+Selon Paleobiology Database                   (14 août 2017) :
 non-classé Cladophorales
 non-classé Cyclocrinales
 non-classé Ulvales
 genre Vermiporella
-Selon World Register of Marine Species                               (14 août 2017)[7] :
+Selon World Register of Marine Species                               (14 août 2017) :
 ordre des Bryopsidales
 ordre des Cladophorales
 ordre des Codiolales
